--- a/data/1QB/Postdraft_Rookies.xlsx
+++ b/data/1QB/Postdraft_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/1QB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{F715F125-FACE-4CDD-A872-54B69401BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0B8590-28E3-47FA-B7E6-DD905DEBB844}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{F715F125-FACE-4CDD-A872-54B69401BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852E2A4D-8A39-41D8-98A1-0D9AF25AD732}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="160" yWindow="15400" windowWidth="20840" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,6 +262,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,7 +588,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,33 +1282,33 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>12</v>
@@ -1312,16 +1316,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -1329,16 +1333,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>12</v>
@@ -1346,16 +1350,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>12</v>
@@ -1363,67 +1367,67 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>13</v>
@@ -1431,7 +1435,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E39" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
       <sortCondition ref="A1:A39"/>
     </sortState>
   </autoFilter>
